--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>P2ry14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09243566666666668</v>
+        <v>0.2329866666666667</v>
       </c>
       <c r="H2">
-        <v>0.277307</v>
+        <v>0.69896</v>
       </c>
       <c r="I2">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="J2">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.694762333333333</v>
+        <v>0.047064</v>
       </c>
       <c r="N2">
-        <v>5.084287</v>
+        <v>0.141192</v>
       </c>
       <c r="O2">
-        <v>0.1062735278116901</v>
+        <v>0.003291309722706829</v>
       </c>
       <c r="P2">
-        <v>0.1062735278116901</v>
+        <v>0.00329130972270683</v>
       </c>
       <c r="Q2">
-        <v>0.1566564861232222</v>
+        <v>0.01096528448</v>
       </c>
       <c r="R2">
-        <v>1.409908375109</v>
+        <v>0.09868756032000001</v>
       </c>
       <c r="S2">
-        <v>0.04061403015744631</v>
+        <v>0.001614856469223699</v>
       </c>
       <c r="T2">
-        <v>0.04061403015744631</v>
+        <v>0.001614856469223699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09243566666666668</v>
+        <v>0.2329866666666667</v>
       </c>
       <c r="H3">
-        <v>0.277307</v>
+        <v>0.69896</v>
       </c>
       <c r="I3">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="J3">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.015562</v>
       </c>
       <c r="O3">
-        <v>0.5646886337367341</v>
+        <v>0.629756515064516</v>
       </c>
       <c r="P3">
-        <v>0.5646886337367339</v>
+        <v>0.6297565150645161</v>
       </c>
       <c r="Q3">
-        <v>0.8324004946148891</v>
+        <v>2.098088579502222</v>
       </c>
       <c r="R3">
-        <v>7.491604451534</v>
+        <v>18.88279721552</v>
       </c>
       <c r="S3">
-        <v>0.2158042710390583</v>
+        <v>0.3089853183283324</v>
       </c>
       <c r="T3">
-        <v>0.2158042710390582</v>
+        <v>0.3089853183283325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09243566666666668</v>
+        <v>0.2329866666666667</v>
       </c>
       <c r="H4">
-        <v>0.277307</v>
+        <v>0.69896</v>
       </c>
       <c r="I4">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="J4">
-        <v>0.3821650696437948</v>
+        <v>0.4906425117280099</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>15.74167</v>
       </c>
       <c r="O4">
-        <v>0.3290378384515759</v>
+        <v>0.366952175212777</v>
       </c>
       <c r="P4">
-        <v>0.329037838451576</v>
+        <v>0.3669521752127771</v>
       </c>
       <c r="Q4">
-        <v>0.4850305869655556</v>
+        <v>1.222533073688889</v>
       </c>
       <c r="R4">
-        <v>4.365275282690001</v>
+        <v>11.0027976632</v>
       </c>
       <c r="S4">
-        <v>0.1257467684472902</v>
+        <v>0.1800423369304537</v>
       </c>
       <c r="T4">
-        <v>0.1257467684472902</v>
+        <v>0.1800423369304537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.149438</v>
+        <v>0.09243566666666668</v>
       </c>
       <c r="H5">
-        <v>0.448314</v>
+        <v>0.277307</v>
       </c>
       <c r="I5">
-        <v>0.6178349303562052</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="J5">
-        <v>0.6178349303562053</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.694762333333333</v>
+        <v>0.047064</v>
       </c>
       <c r="N5">
-        <v>5.084287</v>
+        <v>0.141192</v>
       </c>
       <c r="O5">
-        <v>0.1062735278116901</v>
+        <v>0.003291309722706829</v>
       </c>
       <c r="P5">
-        <v>0.1062735278116901</v>
+        <v>0.00329130972270683</v>
       </c>
       <c r="Q5">
-        <v>0.2532618935686667</v>
+        <v>0.004350392216000001</v>
       </c>
       <c r="R5">
-        <v>2.279357042118</v>
+        <v>0.03915352994400001</v>
       </c>
       <c r="S5">
-        <v>0.06565949765424378</v>
+        <v>0.0006406818743719472</v>
       </c>
       <c r="T5">
-        <v>0.0656594976542438</v>
+        <v>0.0006406818743719473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.149438</v>
+        <v>0.09243566666666668</v>
       </c>
       <c r="H6">
-        <v>0.448314</v>
+        <v>0.277307</v>
       </c>
       <c r="I6">
-        <v>0.6178349303562052</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="J6">
-        <v>0.6178349303562053</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.015562</v>
       </c>
       <c r="O6">
-        <v>0.5646886337367341</v>
+        <v>0.629756515064516</v>
       </c>
       <c r="P6">
-        <v>0.5646886337367339</v>
+        <v>0.6297565150645161</v>
       </c>
       <c r="Q6">
-        <v>1.345717184718667</v>
+        <v>0.8324004946148891</v>
       </c>
       <c r="R6">
-        <v>12.111454662468</v>
+        <v>7.491604451534</v>
       </c>
       <c r="S6">
-        <v>0.3488843626976758</v>
+        <v>0.122587546740407</v>
       </c>
       <c r="T6">
-        <v>0.3488843626976758</v>
+        <v>0.122587546740407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.149438</v>
+        <v>0.09243566666666668</v>
       </c>
       <c r="H7">
-        <v>0.448314</v>
+        <v>0.277307</v>
       </c>
       <c r="I7">
-        <v>0.6178349303562052</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="J7">
-        <v>0.6178349303562053</v>
+        <v>0.1946586399790535</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>15.74167</v>
       </c>
       <c r="O7">
-        <v>0.3290378384515759</v>
+        <v>0.366952175212777</v>
       </c>
       <c r="P7">
-        <v>0.329037838451576</v>
+        <v>0.3669521752127771</v>
       </c>
       <c r="Q7">
-        <v>0.7841345604866667</v>
+        <v>0.4850305869655556</v>
       </c>
       <c r="R7">
-        <v>7.057211044380002</v>
+        <v>4.36527528269</v>
       </c>
       <c r="S7">
-        <v>0.2032910700042857</v>
+        <v>0.07143041136427453</v>
       </c>
       <c r="T7">
-        <v>0.2032910700042858</v>
+        <v>0.07143041136427454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.149438</v>
+      </c>
+      <c r="H8">
+        <v>0.448314</v>
+      </c>
+      <c r="I8">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="J8">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.047064</v>
+      </c>
+      <c r="N8">
+        <v>0.141192</v>
+      </c>
+      <c r="O8">
+        <v>0.003291309722706829</v>
+      </c>
+      <c r="P8">
+        <v>0.00329130972270683</v>
+      </c>
+      <c r="Q8">
+        <v>0.007033150032</v>
+      </c>
+      <c r="R8">
+        <v>0.063298350288</v>
+      </c>
+      <c r="S8">
+        <v>0.001035771379111184</v>
+      </c>
+      <c r="T8">
+        <v>0.001035771379111184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.149438</v>
+      </c>
+      <c r="H9">
+        <v>0.448314</v>
+      </c>
+      <c r="I9">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="J9">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.005187333333334</v>
+      </c>
+      <c r="N9">
+        <v>27.015562</v>
+      </c>
+      <c r="O9">
+        <v>0.629756515064516</v>
+      </c>
+      <c r="P9">
+        <v>0.6297565150645161</v>
+      </c>
+      <c r="Q9">
+        <v>1.345717184718667</v>
+      </c>
+      <c r="R9">
+        <v>12.111454662468</v>
+      </c>
+      <c r="S9">
+        <v>0.1981836499957766</v>
+      </c>
+      <c r="T9">
+        <v>0.1981836499957767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.149438</v>
+      </c>
+      <c r="H10">
+        <v>0.448314</v>
+      </c>
+      <c r="I10">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="J10">
+        <v>0.3146988482929367</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.247223333333333</v>
+      </c>
+      <c r="N10">
+        <v>15.74167</v>
+      </c>
+      <c r="O10">
+        <v>0.366952175212777</v>
+      </c>
+      <c r="P10">
+        <v>0.3669521752127771</v>
+      </c>
+      <c r="Q10">
+        <v>0.7841345604866666</v>
+      </c>
+      <c r="R10">
+        <v>7.05721104438</v>
+      </c>
+      <c r="S10">
+        <v>0.1154794269180488</v>
+      </c>
+      <c r="T10">
+        <v>0.1154794269180489</v>
       </c>
     </row>
   </sheetData>
